--- a/SDA_specs/iot_agg_reg_DE.xlsx
+++ b/SDA_specs/iot_agg_reg_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Factor of production" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Satellite account" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Consumption category" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Region" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sector" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Factor of production" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Satellite account" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Consumption category" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Region" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sector" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -14679,7 +14679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ES164"/>
+  <dimension ref="A1:FF164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -14692,543 +14692,543 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="BA1" t="inlineStr">
+      <c r="BN1" t="inlineStr">
         <is>
           <t>Aggregation</t>
         </is>
       </c>
-      <c r="ES1" s="5" t="n"/>
+      <c r="FF1" s="5" t="n"/>
     </row>
     <row r="2">
-      <c r="ER2" s="5" t="n"/>
+      <c r="FE2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="ER3" s="5" t="n"/>
+      <c r="FE3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="ER4" s="5" t="n"/>
+      <c r="FE4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="ER5" s="5" t="n"/>
+      <c r="FE5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="ER6" s="5" t="n"/>
+      <c r="FE6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="ER7" s="5" t="n"/>
+      <c r="FE7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="ER8" s="5" t="n"/>
+      <c r="FE8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="ER9" s="5" t="n"/>
+      <c r="FE9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="ER10" s="5" t="n"/>
+      <c r="FE10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="ER11" s="5" t="n"/>
+      <c r="FE11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="ER12" s="5" t="n"/>
+      <c r="FE12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="ER13" s="5" t="n"/>
+      <c r="FE13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="ER14" s="5" t="n"/>
+      <c r="FE14" s="5" t="n"/>
     </row>
     <row r="15">
-      <c r="ER15" s="5" t="n"/>
+      <c r="FE15" s="5" t="n"/>
     </row>
     <row r="16">
-      <c r="ER16" s="5" t="n"/>
+      <c r="FE16" s="5" t="n"/>
     </row>
     <row r="17">
-      <c r="ER17" s="5" t="n"/>
+      <c r="FE17" s="5" t="n"/>
     </row>
     <row r="18">
-      <c r="ER18" s="5" t="n"/>
+      <c r="FE18" s="5" t="n"/>
     </row>
     <row r="19">
-      <c r="ER19" s="5" t="n"/>
+      <c r="FE19" s="5" t="n"/>
     </row>
     <row r="20">
-      <c r="ER20" s="5" t="n"/>
+      <c r="FE20" s="5" t="n"/>
     </row>
     <row r="21">
-      <c r="ER21" s="5" t="n"/>
+      <c r="FE21" s="5" t="n"/>
     </row>
     <row r="22">
-      <c r="ER22" s="5" t="n"/>
+      <c r="FE22" s="5" t="n"/>
     </row>
     <row r="23">
-      <c r="ER23" s="5" t="n"/>
+      <c r="FE23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="ER24" s="5" t="n"/>
+      <c r="FE24" s="5" t="n"/>
     </row>
     <row r="25">
-      <c r="ER25" s="5" t="n"/>
+      <c r="FE25" s="5" t="n"/>
     </row>
     <row r="26">
-      <c r="ER26" s="5" t="n"/>
+      <c r="FE26" s="5" t="n"/>
     </row>
     <row r="27">
-      <c r="ER27" s="5" t="n"/>
+      <c r="FE27" s="5" t="n"/>
     </row>
     <row r="28">
-      <c r="ER28" s="5" t="n"/>
+      <c r="FE28" s="5" t="n"/>
     </row>
     <row r="29">
-      <c r="ER29" s="5" t="n"/>
+      <c r="FE29" s="5" t="n"/>
     </row>
     <row r="30">
-      <c r="ER30" s="5" t="n"/>
+      <c r="FE30" s="5" t="n"/>
     </row>
     <row r="31">
-      <c r="ER31" s="5" t="n"/>
+      <c r="FE31" s="5" t="n"/>
     </row>
     <row r="32">
-      <c r="ER32" s="5" t="n"/>
+      <c r="FE32" s="5" t="n"/>
     </row>
     <row r="33">
-      <c r="ER33" s="5" t="n"/>
+      <c r="FE33" s="5" t="n"/>
     </row>
     <row r="34">
-      <c r="ER34" s="5" t="n"/>
+      <c r="FE34" s="5" t="n"/>
     </row>
     <row r="35">
-      <c r="ER35" s="5" t="n"/>
+      <c r="FE35" s="5" t="n"/>
     </row>
     <row r="36">
-      <c r="ER36" s="5" t="n"/>
+      <c r="FE36" s="5" t="n"/>
     </row>
     <row r="37">
-      <c r="ER37" s="5" t="n"/>
+      <c r="FE37" s="5" t="n"/>
     </row>
     <row r="38">
-      <c r="ER38" s="5" t="n"/>
+      <c r="FE38" s="5" t="n"/>
     </row>
     <row r="39">
-      <c r="ER39" s="5" t="n"/>
+      <c r="FE39" s="5" t="n"/>
     </row>
     <row r="40">
-      <c r="ER40" s="5" t="n"/>
+      <c r="FE40" s="5" t="n"/>
     </row>
     <row r="41">
-      <c r="ER41" s="5" t="n"/>
+      <c r="FE41" s="5" t="n"/>
     </row>
     <row r="42">
-      <c r="ER42" s="5" t="n"/>
+      <c r="FE42" s="5" t="n"/>
     </row>
     <row r="43">
-      <c r="ER43" s="5" t="n"/>
+      <c r="FE43" s="5" t="n"/>
     </row>
     <row r="44">
-      <c r="ER44" s="5" t="n"/>
+      <c r="FE44" s="5" t="n"/>
     </row>
     <row r="45">
-      <c r="ER45" s="5" t="n"/>
+      <c r="FE45" s="5" t="n"/>
     </row>
     <row r="46">
-      <c r="ER46" s="5" t="n"/>
+      <c r="FE46" s="5" t="n"/>
     </row>
     <row r="47">
-      <c r="ER47" s="5" t="n"/>
+      <c r="FE47" s="5" t="n"/>
     </row>
     <row r="48">
-      <c r="ER48" s="5" t="n"/>
+      <c r="FE48" s="5" t="n"/>
     </row>
     <row r="49">
-      <c r="ER49" s="5" t="n"/>
+      <c r="FE49" s="5" t="n"/>
     </row>
     <row r="50">
-      <c r="ER50" s="5" t="n"/>
+      <c r="FE50" s="5" t="n"/>
     </row>
     <row r="51">
-      <c r="ER51" s="5" t="n"/>
+      <c r="FE51" s="5" t="n"/>
     </row>
     <row r="52">
-      <c r="ER52" s="5" t="n"/>
+      <c r="FE52" s="5" t="n"/>
     </row>
     <row r="53">
-      <c r="ER53" s="5" t="n"/>
+      <c r="FE53" s="5" t="n"/>
     </row>
     <row r="54">
-      <c r="ER54" s="5" t="n"/>
+      <c r="FE54" s="5" t="n"/>
     </row>
     <row r="55">
-      <c r="ER55" s="5" t="n"/>
+      <c r="FE55" s="5" t="n"/>
     </row>
     <row r="56">
-      <c r="ER56" s="5" t="n"/>
+      <c r="FE56" s="5" t="n"/>
     </row>
     <row r="57">
-      <c r="ER57" s="5" t="n"/>
+      <c r="FE57" s="5" t="n"/>
     </row>
     <row r="58">
-      <c r="ER58" s="5" t="n"/>
+      <c r="FE58" s="5" t="n"/>
     </row>
     <row r="59">
-      <c r="ER59" s="5" t="n"/>
+      <c r="FE59" s="5" t="n"/>
     </row>
     <row r="60">
-      <c r="ER60" s="5" t="n"/>
+      <c r="FE60" s="5" t="n"/>
     </row>
     <row r="61">
-      <c r="ER61" s="5" t="n"/>
+      <c r="FE61" s="5" t="n"/>
     </row>
     <row r="62">
-      <c r="ER62" s="5" t="n"/>
+      <c r="FE62" s="5" t="n"/>
     </row>
     <row r="63">
-      <c r="ER63" s="5" t="n"/>
+      <c r="FE63" s="5" t="n"/>
     </row>
     <row r="64">
-      <c r="ER64" s="5" t="n"/>
+      <c r="FE64" s="5" t="n"/>
     </row>
     <row r="65">
-      <c r="ER65" s="5" t="n"/>
+      <c r="FE65" s="5" t="n"/>
     </row>
     <row r="66">
-      <c r="ER66" s="5" t="n"/>
+      <c r="FE66" s="5" t="n"/>
     </row>
     <row r="67">
-      <c r="ER67" s="5" t="n"/>
+      <c r="FE67" s="5" t="n"/>
     </row>
     <row r="68">
-      <c r="ER68" s="5" t="n"/>
+      <c r="FE68" s="5" t="n"/>
     </row>
     <row r="69">
-      <c r="ER69" s="5" t="n"/>
+      <c r="FE69" s="5" t="n"/>
     </row>
     <row r="70">
-      <c r="ER70" s="5" t="n"/>
+      <c r="FE70" s="5" t="n"/>
     </row>
     <row r="71">
-      <c r="ER71" s="5" t="n"/>
+      <c r="FE71" s="5" t="n"/>
     </row>
     <row r="72">
-      <c r="ER72" s="5" t="n"/>
+      <c r="FE72" s="5" t="n"/>
     </row>
     <row r="73">
-      <c r="ER73" s="5" t="n"/>
+      <c r="FE73" s="5" t="n"/>
     </row>
     <row r="74">
-      <c r="ER74" s="5" t="n"/>
+      <c r="FE74" s="5" t="n"/>
     </row>
     <row r="75">
-      <c r="ER75" s="5" t="n"/>
+      <c r="FE75" s="5" t="n"/>
     </row>
     <row r="76">
-      <c r="ER76" s="5" t="n"/>
+      <c r="FE76" s="5" t="n"/>
     </row>
     <row r="77">
-      <c r="ER77" s="5" t="n"/>
+      <c r="FE77" s="5" t="n"/>
     </row>
     <row r="78">
-      <c r="ER78" s="5" t="n"/>
+      <c r="FE78" s="5" t="n"/>
     </row>
     <row r="79">
-      <c r="ER79" s="5" t="n"/>
+      <c r="FE79" s="5" t="n"/>
     </row>
     <row r="80">
-      <c r="ER80" s="5" t="n"/>
+      <c r="FE80" s="5" t="n"/>
     </row>
     <row r="81">
-      <c r="ER81" s="5" t="n"/>
+      <c r="FE81" s="5" t="n"/>
     </row>
     <row r="82">
-      <c r="ER82" s="5" t="n"/>
+      <c r="FE82" s="5" t="n"/>
     </row>
     <row r="83">
-      <c r="ER83" s="5" t="n"/>
+      <c r="FE83" s="5" t="n"/>
     </row>
     <row r="84">
-      <c r="ER84" s="5" t="n"/>
+      <c r="FE84" s="5" t="n"/>
     </row>
     <row r="85">
-      <c r="ER85" s="5" t="n"/>
+      <c r="FE85" s="5" t="n"/>
     </row>
     <row r="86">
-      <c r="ER86" s="5" t="n"/>
+      <c r="FE86" s="5" t="n"/>
     </row>
     <row r="87">
-      <c r="ER87" s="5" t="n"/>
+      <c r="FE87" s="5" t="n"/>
     </row>
     <row r="88">
-      <c r="ER88" s="5" t="n"/>
+      <c r="FE88" s="5" t="n"/>
     </row>
     <row r="89">
-      <c r="ER89" s="5" t="n"/>
+      <c r="FE89" s="5" t="n"/>
     </row>
     <row r="90">
-      <c r="ER90" s="5" t="n"/>
+      <c r="FE90" s="5" t="n"/>
     </row>
     <row r="91">
-      <c r="ER91" s="5" t="n"/>
+      <c r="FE91" s="5" t="n"/>
     </row>
     <row r="92">
-      <c r="ER92" s="5" t="n"/>
+      <c r="FE92" s="5" t="n"/>
     </row>
     <row r="93">
-      <c r="ER93" s="5" t="n"/>
+      <c r="FE93" s="5" t="n"/>
     </row>
     <row r="94">
-      <c r="ER94" s="5" t="n"/>
+      <c r="FE94" s="5" t="n"/>
     </row>
     <row r="95">
-      <c r="ER95" s="5" t="n"/>
+      <c r="FE95" s="5" t="n"/>
     </row>
     <row r="96">
-      <c r="ER96" s="5" t="n"/>
+      <c r="FE96" s="5" t="n"/>
     </row>
     <row r="97">
-      <c r="ER97" s="5" t="n"/>
-      <c r="ES97" s="6" t="n"/>
+      <c r="FE97" s="5" t="n"/>
+      <c r="FF97" s="6" t="n"/>
     </row>
     <row r="98">
-      <c r="ER98" s="5" t="n"/>
-      <c r="ES98" s="6" t="n"/>
+      <c r="FE98" s="5" t="n"/>
+      <c r="FF98" s="6" t="n"/>
     </row>
     <row r="99">
-      <c r="ER99" s="5" t="n"/>
-      <c r="ES99" s="6" t="n"/>
+      <c r="FE99" s="5" t="n"/>
+      <c r="FF99" s="6" t="n"/>
     </row>
     <row r="100">
-      <c r="ER100" s="5" t="n"/>
-      <c r="ES100" s="6" t="n"/>
+      <c r="FE100" s="5" t="n"/>
+      <c r="FF100" s="6" t="n"/>
     </row>
     <row r="101">
-      <c r="ER101" s="5" t="n"/>
-      <c r="ES101" s="6" t="n"/>
+      <c r="FE101" s="5" t="n"/>
+      <c r="FF101" s="6" t="n"/>
     </row>
     <row r="102">
-      <c r="ER102" s="5" t="n"/>
-      <c r="ES102" s="6" t="n"/>
+      <c r="FE102" s="5" t="n"/>
+      <c r="FF102" s="6" t="n"/>
     </row>
     <row r="103">
-      <c r="ER103" s="5" t="n"/>
-      <c r="ES103" s="6" t="n"/>
+      <c r="FE103" s="5" t="n"/>
+      <c r="FF103" s="6" t="n"/>
     </row>
     <row r="104">
-      <c r="ER104" s="5" t="n"/>
-      <c r="ES104" s="6" t="n"/>
+      <c r="FE104" s="5" t="n"/>
+      <c r="FF104" s="6" t="n"/>
     </row>
     <row r="105">
-      <c r="ER105" s="5" t="n"/>
-      <c r="ES105" s="6" t="n"/>
+      <c r="FE105" s="5" t="n"/>
+      <c r="FF105" s="6" t="n"/>
     </row>
     <row r="106">
-      <c r="ER106" s="5" t="n"/>
-      <c r="ES106" s="6" t="n"/>
+      <c r="FE106" s="5" t="n"/>
+      <c r="FF106" s="6" t="n"/>
     </row>
     <row r="107">
-      <c r="ER107" s="5" t="n"/>
-      <c r="ES107" s="6" t="n"/>
+      <c r="FE107" s="5" t="n"/>
+      <c r="FF107" s="6" t="n"/>
     </row>
     <row r="108">
-      <c r="ER108" s="5" t="n"/>
-      <c r="ES108" s="6" t="n"/>
+      <c r="FE108" s="5" t="n"/>
+      <c r="FF108" s="6" t="n"/>
     </row>
     <row r="109">
-      <c r="ER109" s="5" t="n"/>
-      <c r="ES109" s="6" t="n"/>
+      <c r="FE109" s="5" t="n"/>
+      <c r="FF109" s="6" t="n"/>
     </row>
     <row r="110">
-      <c r="ER110" s="5" t="n"/>
-      <c r="ES110" s="6" t="n"/>
+      <c r="FE110" s="5" t="n"/>
+      <c r="FF110" s="6" t="n"/>
     </row>
     <row r="111">
-      <c r="ER111" s="5" t="n"/>
-      <c r="ES111" s="6" t="n"/>
+      <c r="FE111" s="5" t="n"/>
+      <c r="FF111" s="6" t="n"/>
     </row>
     <row r="112">
-      <c r="ER112" s="5" t="n"/>
-      <c r="ES112" s="6" t="n"/>
+      <c r="FE112" s="5" t="n"/>
+      <c r="FF112" s="6" t="n"/>
     </row>
     <row r="113">
-      <c r="ER113" s="5" t="n"/>
-      <c r="ES113" s="6" t="n"/>
+      <c r="FE113" s="5" t="n"/>
+      <c r="FF113" s="6" t="n"/>
     </row>
     <row r="114">
-      <c r="ER114" s="5" t="n"/>
+      <c r="FE114" s="5" t="n"/>
     </row>
     <row r="115">
-      <c r="ER115" s="5" t="n"/>
+      <c r="FE115" s="5" t="n"/>
     </row>
     <row r="116">
-      <c r="ER116" s="5" t="n"/>
+      <c r="FE116" s="5" t="n"/>
     </row>
     <row r="117">
-      <c r="ER117" s="5" t="n"/>
+      <c r="FE117" s="5" t="n"/>
     </row>
     <row r="118">
-      <c r="ER118" s="5" t="n"/>
+      <c r="FE118" s="5" t="n"/>
     </row>
     <row r="119">
-      <c r="ER119" s="5" t="n"/>
+      <c r="FE119" s="5" t="n"/>
     </row>
     <row r="120">
-      <c r="ER120" s="5" t="n"/>
+      <c r="FE120" s="5" t="n"/>
     </row>
     <row r="121">
-      <c r="ER121" s="5" t="n"/>
-      <c r="ES121" s="7" t="n"/>
+      <c r="FE121" s="5" t="n"/>
+      <c r="FF121" s="7" t="n"/>
     </row>
     <row r="122">
-      <c r="ER122" s="5" t="n"/>
-      <c r="ES122" s="7" t="n"/>
+      <c r="FE122" s="5" t="n"/>
+      <c r="FF122" s="7" t="n"/>
     </row>
     <row r="123">
-      <c r="ER123" s="5" t="n"/>
-      <c r="ES123" s="7" t="n"/>
+      <c r="FE123" s="5" t="n"/>
+      <c r="FF123" s="7" t="n"/>
     </row>
     <row r="124">
-      <c r="ER124" s="5" t="n"/>
-      <c r="ES124" s="7" t="n"/>
+      <c r="FE124" s="5" t="n"/>
+      <c r="FF124" s="7" t="n"/>
     </row>
     <row r="125">
-      <c r="ER125" s="5" t="n"/>
-      <c r="ES125" s="7" t="n"/>
+      <c r="FE125" s="5" t="n"/>
+      <c r="FF125" s="7" t="n"/>
     </row>
     <row r="126">
-      <c r="ER126" s="5" t="n"/>
-      <c r="ES126" s="7" t="n"/>
+      <c r="FE126" s="5" t="n"/>
+      <c r="FF126" s="7" t="n"/>
     </row>
     <row r="127">
-      <c r="ER127" s="5" t="n"/>
-      <c r="ES127" s="7" t="n"/>
+      <c r="FE127" s="5" t="n"/>
+      <c r="FF127" s="7" t="n"/>
     </row>
     <row r="128">
-      <c r="ER128" s="5" t="n"/>
+      <c r="FE128" s="5" t="n"/>
     </row>
     <row r="129">
-      <c r="ER129" s="5" t="n"/>
+      <c r="FE129" s="5" t="n"/>
     </row>
     <row r="130">
-      <c r="ER130" s="5" t="n"/>
+      <c r="FE130" s="5" t="n"/>
     </row>
     <row r="131">
-      <c r="ER131" s="5" t="n"/>
+      <c r="FE131" s="5" t="n"/>
     </row>
     <row r="132">
-      <c r="ER132" s="5" t="n"/>
+      <c r="FE132" s="5" t="n"/>
     </row>
     <row r="133">
-      <c r="ER133" s="5" t="n"/>
+      <c r="FE133" s="5" t="n"/>
     </row>
     <row r="134">
-      <c r="ER134" s="5" t="n"/>
+      <c r="FE134" s="5" t="n"/>
     </row>
     <row r="135">
-      <c r="ER135" s="5" t="n"/>
+      <c r="FE135" s="5" t="n"/>
     </row>
     <row r="136">
-      <c r="ER136" s="5" t="n"/>
+      <c r="FE136" s="5" t="n"/>
     </row>
     <row r="137">
-      <c r="ER137" s="5" t="n"/>
+      <c r="FE137" s="5" t="n"/>
     </row>
     <row r="138">
-      <c r="ER138" s="5" t="n"/>
+      <c r="FE138" s="5" t="n"/>
     </row>
     <row r="139">
-      <c r="ER139" s="5" t="n"/>
+      <c r="FE139" s="5" t="n"/>
     </row>
     <row r="140">
-      <c r="ER140" s="5" t="n"/>
-      <c r="ES140" s="6" t="n"/>
+      <c r="FE140" s="5" t="n"/>
+      <c r="FF140" s="6" t="n"/>
     </row>
     <row r="141">
-      <c r="ER141" s="5" t="n"/>
-      <c r="ES141" s="6" t="n"/>
+      <c r="FE141" s="5" t="n"/>
+      <c r="FF141" s="6" t="n"/>
     </row>
     <row r="142">
-      <c r="ER142" s="5" t="n"/>
-      <c r="ES142" s="6" t="n"/>
+      <c r="FE142" s="5" t="n"/>
+      <c r="FF142" s="6" t="n"/>
     </row>
     <row r="143">
-      <c r="ER143" s="5" t="n"/>
-      <c r="ES143" s="6" t="n"/>
+      <c r="FE143" s="5" t="n"/>
+      <c r="FF143" s="6" t="n"/>
     </row>
     <row r="144">
-      <c r="ER144" s="5" t="n"/>
-      <c r="ES144" s="6" t="n"/>
+      <c r="FE144" s="5" t="n"/>
+      <c r="FF144" s="6" t="n"/>
     </row>
     <row r="145">
-      <c r="ER145" s="5" t="n"/>
-      <c r="ES145" s="6" t="n"/>
+      <c r="FE145" s="5" t="n"/>
+      <c r="FF145" s="6" t="n"/>
     </row>
     <row r="146">
-      <c r="ER146" s="5" t="n"/>
-      <c r="ES146" s="6" t="n"/>
+      <c r="FE146" s="5" t="n"/>
+      <c r="FF146" s="6" t="n"/>
     </row>
     <row r="147">
-      <c r="ER147" s="5" t="n"/>
-      <c r="ES147" s="6" t="n"/>
+      <c r="FE147" s="5" t="n"/>
+      <c r="FF147" s="6" t="n"/>
     </row>
     <row r="148">
-      <c r="ER148" s="5" t="n"/>
-      <c r="ES148" s="6" t="n"/>
+      <c r="FE148" s="5" t="n"/>
+      <c r="FF148" s="6" t="n"/>
     </row>
     <row r="149">
-      <c r="ER149" s="5" t="n"/>
-      <c r="ES149" s="6" t="n"/>
+      <c r="FE149" s="5" t="n"/>
+      <c r="FF149" s="6" t="n"/>
     </row>
     <row r="150">
-      <c r="ER150" s="5" t="n"/>
+      <c r="FE150" s="5" t="n"/>
     </row>
     <row r="151">
-      <c r="ER151" s="5" t="n"/>
+      <c r="FE151" s="5" t="n"/>
     </row>
     <row r="152">
-      <c r="ER152" s="5" t="n"/>
-      <c r="ES152" s="6" t="n"/>
+      <c r="FE152" s="5" t="n"/>
+      <c r="FF152" s="6" t="n"/>
     </row>
     <row r="153">
-      <c r="ER153" s="5" t="n"/>
-      <c r="ES153" s="6" t="n"/>
+      <c r="FE153" s="5" t="n"/>
+      <c r="FF153" s="6" t="n"/>
     </row>
     <row r="154">
-      <c r="ER154" s="5" t="n"/>
-      <c r="ES154" s="6" t="n"/>
+      <c r="FE154" s="5" t="n"/>
+      <c r="FF154" s="6" t="n"/>
     </row>
     <row r="155">
-      <c r="ER155" s="5" t="n"/>
-      <c r="ES155" s="6" t="n"/>
+      <c r="FE155" s="5" t="n"/>
+      <c r="FF155" s="6" t="n"/>
     </row>
     <row r="156">
-      <c r="ER156" s="5" t="n"/>
-      <c r="ES156" s="6" t="n"/>
+      <c r="FE156" s="5" t="n"/>
+      <c r="FF156" s="6" t="n"/>
     </row>
     <row r="157">
-      <c r="ER157" s="5" t="n"/>
-      <c r="ES157" s="6" t="n"/>
+      <c r="FE157" s="5" t="n"/>
+      <c r="FF157" s="6" t="n"/>
     </row>
     <row r="158">
-      <c r="ER158" s="5" t="n"/>
-      <c r="ES158" s="6" t="n"/>
+      <c r="FE158" s="5" t="n"/>
+      <c r="FF158" s="6" t="n"/>
     </row>
     <row r="159">
-      <c r="ER159" s="5" t="n"/>
-      <c r="ES159" s="6" t="n"/>
+      <c r="FE159" s="5" t="n"/>
+      <c r="FF159" s="6" t="n"/>
     </row>
     <row r="160">
-      <c r="ER160" s="5" t="n"/>
+      <c r="FE160" s="5" t="n"/>
     </row>
     <row r="161">
-      <c r="ER161" s="5" t="n"/>
+      <c r="FE161" s="5" t="n"/>
     </row>
     <row r="162">
-      <c r="ER162" s="5" t="n"/>
+      <c r="FE162" s="5" t="n"/>
     </row>
     <row r="163">
-      <c r="ER163" s="5" t="n"/>
+      <c r="FE163" s="5" t="n"/>
     </row>
     <row r="164">
-      <c r="ER164" s="5" t="n"/>
+      <c r="FE164" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SDA_specs/iot_agg_reg_DE.xlsx
+++ b/SDA_specs/iot_agg_reg_DE.xlsx
@@ -14679,7 +14679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FF164"/>
+  <dimension ref="A1:FK164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -14692,543 +14692,543 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="BN1" t="inlineStr">
+      <c r="BS1" t="inlineStr">
         <is>
           <t>Aggregation</t>
         </is>
       </c>
-      <c r="FF1" s="5" t="n"/>
+      <c r="FK1" s="5" t="n"/>
     </row>
     <row r="2">
-      <c r="FE2" s="5" t="n"/>
+      <c r="FJ2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="FE3" s="5" t="n"/>
+      <c r="FJ3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="FE4" s="5" t="n"/>
+      <c r="FJ4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="FE5" s="5" t="n"/>
+      <c r="FJ5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="FE6" s="5" t="n"/>
+      <c r="FJ6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="FE7" s="5" t="n"/>
+      <c r="FJ7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="FE8" s="5" t="n"/>
+      <c r="FJ8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="FE9" s="5" t="n"/>
+      <c r="FJ9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="FE10" s="5" t="n"/>
+      <c r="FJ10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="FE11" s="5" t="n"/>
+      <c r="FJ11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="FE12" s="5" t="n"/>
+      <c r="FJ12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="FE13" s="5" t="n"/>
+      <c r="FJ13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="FE14" s="5" t="n"/>
+      <c r="FJ14" s="5" t="n"/>
     </row>
     <row r="15">
-      <c r="FE15" s="5" t="n"/>
+      <c r="FJ15" s="5" t="n"/>
     </row>
     <row r="16">
-      <c r="FE16" s="5" t="n"/>
+      <c r="FJ16" s="5" t="n"/>
     </row>
     <row r="17">
-      <c r="FE17" s="5" t="n"/>
+      <c r="FJ17" s="5" t="n"/>
     </row>
     <row r="18">
-      <c r="FE18" s="5" t="n"/>
+      <c r="FJ18" s="5" t="n"/>
     </row>
     <row r="19">
-      <c r="FE19" s="5" t="n"/>
+      <c r="FJ19" s="5" t="n"/>
     </row>
     <row r="20">
-      <c r="FE20" s="5" t="n"/>
+      <c r="FJ20" s="5" t="n"/>
     </row>
     <row r="21">
-      <c r="FE21" s="5" t="n"/>
+      <c r="FJ21" s="5" t="n"/>
     </row>
     <row r="22">
-      <c r="FE22" s="5" t="n"/>
+      <c r="FJ22" s="5" t="n"/>
     </row>
     <row r="23">
-      <c r="FE23" s="5" t="n"/>
+      <c r="FJ23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="FE24" s="5" t="n"/>
+      <c r="FJ24" s="5" t="n"/>
     </row>
     <row r="25">
-      <c r="FE25" s="5" t="n"/>
+      <c r="FJ25" s="5" t="n"/>
     </row>
     <row r="26">
-      <c r="FE26" s="5" t="n"/>
+      <c r="FJ26" s="5" t="n"/>
     </row>
     <row r="27">
-      <c r="FE27" s="5" t="n"/>
+      <c r="FJ27" s="5" t="n"/>
     </row>
     <row r="28">
-      <c r="FE28" s="5" t="n"/>
+      <c r="FJ28" s="5" t="n"/>
     </row>
     <row r="29">
-      <c r="FE29" s="5" t="n"/>
+      <c r="FJ29" s="5" t="n"/>
     </row>
     <row r="30">
-      <c r="FE30" s="5" t="n"/>
+      <c r="FJ30" s="5" t="n"/>
     </row>
     <row r="31">
-      <c r="FE31" s="5" t="n"/>
+      <c r="FJ31" s="5" t="n"/>
     </row>
     <row r="32">
-      <c r="FE32" s="5" t="n"/>
+      <c r="FJ32" s="5" t="n"/>
     </row>
     <row r="33">
-      <c r="FE33" s="5" t="n"/>
+      <c r="FJ33" s="5" t="n"/>
     </row>
     <row r="34">
-      <c r="FE34" s="5" t="n"/>
+      <c r="FJ34" s="5" t="n"/>
     </row>
     <row r="35">
-      <c r="FE35" s="5" t="n"/>
+      <c r="FJ35" s="5" t="n"/>
     </row>
     <row r="36">
-      <c r="FE36" s="5" t="n"/>
+      <c r="FJ36" s="5" t="n"/>
     </row>
     <row r="37">
-      <c r="FE37" s="5" t="n"/>
+      <c r="FJ37" s="5" t="n"/>
     </row>
     <row r="38">
-      <c r="FE38" s="5" t="n"/>
+      <c r="FJ38" s="5" t="n"/>
     </row>
     <row r="39">
-      <c r="FE39" s="5" t="n"/>
+      <c r="FJ39" s="5" t="n"/>
     </row>
     <row r="40">
-      <c r="FE40" s="5" t="n"/>
+      <c r="FJ40" s="5" t="n"/>
     </row>
     <row r="41">
-      <c r="FE41" s="5" t="n"/>
+      <c r="FJ41" s="5" t="n"/>
     </row>
     <row r="42">
-      <c r="FE42" s="5" t="n"/>
+      <c r="FJ42" s="5" t="n"/>
     </row>
     <row r="43">
-      <c r="FE43" s="5" t="n"/>
+      <c r="FJ43" s="5" t="n"/>
     </row>
     <row r="44">
-      <c r="FE44" s="5" t="n"/>
+      <c r="FJ44" s="5" t="n"/>
     </row>
     <row r="45">
-      <c r="FE45" s="5" t="n"/>
+      <c r="FJ45" s="5" t="n"/>
     </row>
     <row r="46">
-      <c r="FE46" s="5" t="n"/>
+      <c r="FJ46" s="5" t="n"/>
     </row>
     <row r="47">
-      <c r="FE47" s="5" t="n"/>
+      <c r="FJ47" s="5" t="n"/>
     </row>
     <row r="48">
-      <c r="FE48" s="5" t="n"/>
+      <c r="FJ48" s="5" t="n"/>
     </row>
     <row r="49">
-      <c r="FE49" s="5" t="n"/>
+      <c r="FJ49" s="5" t="n"/>
     </row>
     <row r="50">
-      <c r="FE50" s="5" t="n"/>
+      <c r="FJ50" s="5" t="n"/>
     </row>
     <row r="51">
-      <c r="FE51" s="5" t="n"/>
+      <c r="FJ51" s="5" t="n"/>
     </row>
     <row r="52">
-      <c r="FE52" s="5" t="n"/>
+      <c r="FJ52" s="5" t="n"/>
     </row>
     <row r="53">
-      <c r="FE53" s="5" t="n"/>
+      <c r="FJ53" s="5" t="n"/>
     </row>
     <row r="54">
-      <c r="FE54" s="5" t="n"/>
+      <c r="FJ54" s="5" t="n"/>
     </row>
     <row r="55">
-      <c r="FE55" s="5" t="n"/>
+      <c r="FJ55" s="5" t="n"/>
     </row>
     <row r="56">
-      <c r="FE56" s="5" t="n"/>
+      <c r="FJ56" s="5" t="n"/>
     </row>
     <row r="57">
-      <c r="FE57" s="5" t="n"/>
+      <c r="FJ57" s="5" t="n"/>
     </row>
     <row r="58">
-      <c r="FE58" s="5" t="n"/>
+      <c r="FJ58" s="5" t="n"/>
     </row>
     <row r="59">
-      <c r="FE59" s="5" t="n"/>
+      <c r="FJ59" s="5" t="n"/>
     </row>
     <row r="60">
-      <c r="FE60" s="5" t="n"/>
+      <c r="FJ60" s="5" t="n"/>
     </row>
     <row r="61">
-      <c r="FE61" s="5" t="n"/>
+      <c r="FJ61" s="5" t="n"/>
     </row>
     <row r="62">
-      <c r="FE62" s="5" t="n"/>
+      <c r="FJ62" s="5" t="n"/>
     </row>
     <row r="63">
-      <c r="FE63" s="5" t="n"/>
+      <c r="FJ63" s="5" t="n"/>
     </row>
     <row r="64">
-      <c r="FE64" s="5" t="n"/>
+      <c r="FJ64" s="5" t="n"/>
     </row>
     <row r="65">
-      <c r="FE65" s="5" t="n"/>
+      <c r="FJ65" s="5" t="n"/>
     </row>
     <row r="66">
-      <c r="FE66" s="5" t="n"/>
+      <c r="FJ66" s="5" t="n"/>
     </row>
     <row r="67">
-      <c r="FE67" s="5" t="n"/>
+      <c r="FJ67" s="5" t="n"/>
     </row>
     <row r="68">
-      <c r="FE68" s="5" t="n"/>
+      <c r="FJ68" s="5" t="n"/>
     </row>
     <row r="69">
-      <c r="FE69" s="5" t="n"/>
+      <c r="FJ69" s="5" t="n"/>
     </row>
     <row r="70">
-      <c r="FE70" s="5" t="n"/>
+      <c r="FJ70" s="5" t="n"/>
     </row>
     <row r="71">
-      <c r="FE71" s="5" t="n"/>
+      <c r="FJ71" s="5" t="n"/>
     </row>
     <row r="72">
-      <c r="FE72" s="5" t="n"/>
+      <c r="FJ72" s="5" t="n"/>
     </row>
     <row r="73">
-      <c r="FE73" s="5" t="n"/>
+      <c r="FJ73" s="5" t="n"/>
     </row>
     <row r="74">
-      <c r="FE74" s="5" t="n"/>
+      <c r="FJ74" s="5" t="n"/>
     </row>
     <row r="75">
-      <c r="FE75" s="5" t="n"/>
+      <c r="FJ75" s="5" t="n"/>
     </row>
     <row r="76">
-      <c r="FE76" s="5" t="n"/>
+      <c r="FJ76" s="5" t="n"/>
     </row>
     <row r="77">
-      <c r="FE77" s="5" t="n"/>
+      <c r="FJ77" s="5" t="n"/>
     </row>
     <row r="78">
-      <c r="FE78" s="5" t="n"/>
+      <c r="FJ78" s="5" t="n"/>
     </row>
     <row r="79">
-      <c r="FE79" s="5" t="n"/>
+      <c r="FJ79" s="5" t="n"/>
     </row>
     <row r="80">
-      <c r="FE80" s="5" t="n"/>
+      <c r="FJ80" s="5" t="n"/>
     </row>
     <row r="81">
-      <c r="FE81" s="5" t="n"/>
+      <c r="FJ81" s="5" t="n"/>
     </row>
     <row r="82">
-      <c r="FE82" s="5" t="n"/>
+      <c r="FJ82" s="5" t="n"/>
     </row>
     <row r="83">
-      <c r="FE83" s="5" t="n"/>
+      <c r="FJ83" s="5" t="n"/>
     </row>
     <row r="84">
-      <c r="FE84" s="5" t="n"/>
+      <c r="FJ84" s="5" t="n"/>
     </row>
     <row r="85">
-      <c r="FE85" s="5" t="n"/>
+      <c r="FJ85" s="5" t="n"/>
     </row>
     <row r="86">
-      <c r="FE86" s="5" t="n"/>
+      <c r="FJ86" s="5" t="n"/>
     </row>
     <row r="87">
-      <c r="FE87" s="5" t="n"/>
+      <c r="FJ87" s="5" t="n"/>
     </row>
     <row r="88">
-      <c r="FE88" s="5" t="n"/>
+      <c r="FJ88" s="5" t="n"/>
     </row>
     <row r="89">
-      <c r="FE89" s="5" t="n"/>
+      <c r="FJ89" s="5" t="n"/>
     </row>
     <row r="90">
-      <c r="FE90" s="5" t="n"/>
+      <c r="FJ90" s="5" t="n"/>
     </row>
     <row r="91">
-      <c r="FE91" s="5" t="n"/>
+      <c r="FJ91" s="5" t="n"/>
     </row>
     <row r="92">
-      <c r="FE92" s="5" t="n"/>
+      <c r="FJ92" s="5" t="n"/>
     </row>
     <row r="93">
-      <c r="FE93" s="5" t="n"/>
+      <c r="FJ93" s="5" t="n"/>
     </row>
     <row r="94">
-      <c r="FE94" s="5" t="n"/>
+      <c r="FJ94" s="5" t="n"/>
     </row>
     <row r="95">
-      <c r="FE95" s="5" t="n"/>
+      <c r="FJ95" s="5" t="n"/>
     </row>
     <row r="96">
-      <c r="FE96" s="5" t="n"/>
+      <c r="FJ96" s="5" t="n"/>
     </row>
     <row r="97">
-      <c r="FE97" s="5" t="n"/>
-      <c r="FF97" s="6" t="n"/>
+      <c r="FJ97" s="5" t="n"/>
+      <c r="FK97" s="6" t="n"/>
     </row>
     <row r="98">
-      <c r="FE98" s="5" t="n"/>
-      <c r="FF98" s="6" t="n"/>
+      <c r="FJ98" s="5" t="n"/>
+      <c r="FK98" s="6" t="n"/>
     </row>
     <row r="99">
-      <c r="FE99" s="5" t="n"/>
-      <c r="FF99" s="6" t="n"/>
+      <c r="FJ99" s="5" t="n"/>
+      <c r="FK99" s="6" t="n"/>
     </row>
     <row r="100">
-      <c r="FE100" s="5" t="n"/>
-      <c r="FF100" s="6" t="n"/>
+      <c r="FJ100" s="5" t="n"/>
+      <c r="FK100" s="6" t="n"/>
     </row>
     <row r="101">
-      <c r="FE101" s="5" t="n"/>
-      <c r="FF101" s="6" t="n"/>
+      <c r="FJ101" s="5" t="n"/>
+      <c r="FK101" s="6" t="n"/>
     </row>
     <row r="102">
-      <c r="FE102" s="5" t="n"/>
-      <c r="FF102" s="6" t="n"/>
+      <c r="FJ102" s="5" t="n"/>
+      <c r="FK102" s="6" t="n"/>
     </row>
     <row r="103">
-      <c r="FE103" s="5" t="n"/>
-      <c r="FF103" s="6" t="n"/>
+      <c r="FJ103" s="5" t="n"/>
+      <c r="FK103" s="6" t="n"/>
     </row>
     <row r="104">
-      <c r="FE104" s="5" t="n"/>
-      <c r="FF104" s="6" t="n"/>
+      <c r="FJ104" s="5" t="n"/>
+      <c r="FK104" s="6" t="n"/>
     </row>
     <row r="105">
-      <c r="FE105" s="5" t="n"/>
-      <c r="FF105" s="6" t="n"/>
+      <c r="FJ105" s="5" t="n"/>
+      <c r="FK105" s="6" t="n"/>
     </row>
     <row r="106">
-      <c r="FE106" s="5" t="n"/>
-      <c r="FF106" s="6" t="n"/>
+      <c r="FJ106" s="5" t="n"/>
+      <c r="FK106" s="6" t="n"/>
     </row>
     <row r="107">
-      <c r="FE107" s="5" t="n"/>
-      <c r="FF107" s="6" t="n"/>
+      <c r="FJ107" s="5" t="n"/>
+      <c r="FK107" s="6" t="n"/>
     </row>
     <row r="108">
-      <c r="FE108" s="5" t="n"/>
-      <c r="FF108" s="6" t="n"/>
+      <c r="FJ108" s="5" t="n"/>
+      <c r="FK108" s="6" t="n"/>
     </row>
     <row r="109">
-      <c r="FE109" s="5" t="n"/>
-      <c r="FF109" s="6" t="n"/>
+      <c r="FJ109" s="5" t="n"/>
+      <c r="FK109" s="6" t="n"/>
     </row>
     <row r="110">
-      <c r="FE110" s="5" t="n"/>
-      <c r="FF110" s="6" t="n"/>
+      <c r="FJ110" s="5" t="n"/>
+      <c r="FK110" s="6" t="n"/>
     </row>
     <row r="111">
-      <c r="FE111" s="5" t="n"/>
-      <c r="FF111" s="6" t="n"/>
+      <c r="FJ111" s="5" t="n"/>
+      <c r="FK111" s="6" t="n"/>
     </row>
     <row r="112">
-      <c r="FE112" s="5" t="n"/>
-      <c r="FF112" s="6" t="n"/>
+      <c r="FJ112" s="5" t="n"/>
+      <c r="FK112" s="6" t="n"/>
     </row>
     <row r="113">
-      <c r="FE113" s="5" t="n"/>
-      <c r="FF113" s="6" t="n"/>
+      <c r="FJ113" s="5" t="n"/>
+      <c r="FK113" s="6" t="n"/>
     </row>
     <row r="114">
-      <c r="FE114" s="5" t="n"/>
+      <c r="FJ114" s="5" t="n"/>
     </row>
     <row r="115">
-      <c r="FE115" s="5" t="n"/>
+      <c r="FJ115" s="5" t="n"/>
     </row>
     <row r="116">
-      <c r="FE116" s="5" t="n"/>
+      <c r="FJ116" s="5" t="n"/>
     </row>
     <row r="117">
-      <c r="FE117" s="5" t="n"/>
+      <c r="FJ117" s="5" t="n"/>
     </row>
     <row r="118">
-      <c r="FE118" s="5" t="n"/>
+      <c r="FJ118" s="5" t="n"/>
     </row>
     <row r="119">
-      <c r="FE119" s="5" t="n"/>
+      <c r="FJ119" s="5" t="n"/>
     </row>
     <row r="120">
-      <c r="FE120" s="5" t="n"/>
+      <c r="FJ120" s="5" t="n"/>
     </row>
     <row r="121">
-      <c r="FE121" s="5" t="n"/>
-      <c r="FF121" s="7" t="n"/>
+      <c r="FJ121" s="5" t="n"/>
+      <c r="FK121" s="7" t="n"/>
     </row>
     <row r="122">
-      <c r="FE122" s="5" t="n"/>
-      <c r="FF122" s="7" t="n"/>
+      <c r="FJ122" s="5" t="n"/>
+      <c r="FK122" s="7" t="n"/>
     </row>
     <row r="123">
-      <c r="FE123" s="5" t="n"/>
-      <c r="FF123" s="7" t="n"/>
+      <c r="FJ123" s="5" t="n"/>
+      <c r="FK123" s="7" t="n"/>
     </row>
     <row r="124">
-      <c r="FE124" s="5" t="n"/>
-      <c r="FF124" s="7" t="n"/>
+      <c r="FJ124" s="5" t="n"/>
+      <c r="FK124" s="7" t="n"/>
     </row>
     <row r="125">
-      <c r="FE125" s="5" t="n"/>
-      <c r="FF125" s="7" t="n"/>
+      <c r="FJ125" s="5" t="n"/>
+      <c r="FK125" s="7" t="n"/>
     </row>
     <row r="126">
-      <c r="FE126" s="5" t="n"/>
-      <c r="FF126" s="7" t="n"/>
+      <c r="FJ126" s="5" t="n"/>
+      <c r="FK126" s="7" t="n"/>
     </row>
     <row r="127">
-      <c r="FE127" s="5" t="n"/>
-      <c r="FF127" s="7" t="n"/>
+      <c r="FJ127" s="5" t="n"/>
+      <c r="FK127" s="7" t="n"/>
     </row>
     <row r="128">
-      <c r="FE128" s="5" t="n"/>
+      <c r="FJ128" s="5" t="n"/>
     </row>
     <row r="129">
-      <c r="FE129" s="5" t="n"/>
+      <c r="FJ129" s="5" t="n"/>
     </row>
     <row r="130">
-      <c r="FE130" s="5" t="n"/>
+      <c r="FJ130" s="5" t="n"/>
     </row>
     <row r="131">
-      <c r="FE131" s="5" t="n"/>
+      <c r="FJ131" s="5" t="n"/>
     </row>
     <row r="132">
-      <c r="FE132" s="5" t="n"/>
+      <c r="FJ132" s="5" t="n"/>
     </row>
     <row r="133">
-      <c r="FE133" s="5" t="n"/>
+      <c r="FJ133" s="5" t="n"/>
     </row>
     <row r="134">
-      <c r="FE134" s="5" t="n"/>
+      <c r="FJ134" s="5" t="n"/>
     </row>
     <row r="135">
-      <c r="FE135" s="5" t="n"/>
+      <c r="FJ135" s="5" t="n"/>
     </row>
     <row r="136">
-      <c r="FE136" s="5" t="n"/>
+      <c r="FJ136" s="5" t="n"/>
     </row>
     <row r="137">
-      <c r="FE137" s="5" t="n"/>
+      <c r="FJ137" s="5" t="n"/>
     </row>
     <row r="138">
-      <c r="FE138" s="5" t="n"/>
+      <c r="FJ138" s="5" t="n"/>
     </row>
     <row r="139">
-      <c r="FE139" s="5" t="n"/>
+      <c r="FJ139" s="5" t="n"/>
     </row>
     <row r="140">
-      <c r="FE140" s="5" t="n"/>
-      <c r="FF140" s="6" t="n"/>
+      <c r="FJ140" s="5" t="n"/>
+      <c r="FK140" s="6" t="n"/>
     </row>
     <row r="141">
-      <c r="FE141" s="5" t="n"/>
-      <c r="FF141" s="6" t="n"/>
+      <c r="FJ141" s="5" t="n"/>
+      <c r="FK141" s="6" t="n"/>
     </row>
     <row r="142">
-      <c r="FE142" s="5" t="n"/>
-      <c r="FF142" s="6" t="n"/>
+      <c r="FJ142" s="5" t="n"/>
+      <c r="FK142" s="6" t="n"/>
     </row>
     <row r="143">
-      <c r="FE143" s="5" t="n"/>
-      <c r="FF143" s="6" t="n"/>
+      <c r="FJ143" s="5" t="n"/>
+      <c r="FK143" s="6" t="n"/>
     </row>
     <row r="144">
-      <c r="FE144" s="5" t="n"/>
-      <c r="FF144" s="6" t="n"/>
+      <c r="FJ144" s="5" t="n"/>
+      <c r="FK144" s="6" t="n"/>
     </row>
     <row r="145">
-      <c r="FE145" s="5" t="n"/>
-      <c r="FF145" s="6" t="n"/>
+      <c r="FJ145" s="5" t="n"/>
+      <c r="FK145" s="6" t="n"/>
     </row>
     <row r="146">
-      <c r="FE146" s="5" t="n"/>
-      <c r="FF146" s="6" t="n"/>
+      <c r="FJ146" s="5" t="n"/>
+      <c r="FK146" s="6" t="n"/>
     </row>
     <row r="147">
-      <c r="FE147" s="5" t="n"/>
-      <c r="FF147" s="6" t="n"/>
+      <c r="FJ147" s="5" t="n"/>
+      <c r="FK147" s="6" t="n"/>
     </row>
     <row r="148">
-      <c r="FE148" s="5" t="n"/>
-      <c r="FF148" s="6" t="n"/>
+      <c r="FJ148" s="5" t="n"/>
+      <c r="FK148" s="6" t="n"/>
     </row>
     <row r="149">
-      <c r="FE149" s="5" t="n"/>
-      <c r="FF149" s="6" t="n"/>
+      <c r="FJ149" s="5" t="n"/>
+      <c r="FK149" s="6" t="n"/>
     </row>
     <row r="150">
-      <c r="FE150" s="5" t="n"/>
+      <c r="FJ150" s="5" t="n"/>
     </row>
     <row r="151">
-      <c r="FE151" s="5" t="n"/>
+      <c r="FJ151" s="5" t="n"/>
     </row>
     <row r="152">
-      <c r="FE152" s="5" t="n"/>
-      <c r="FF152" s="6" t="n"/>
+      <c r="FJ152" s="5" t="n"/>
+      <c r="FK152" s="6" t="n"/>
     </row>
     <row r="153">
-      <c r="FE153" s="5" t="n"/>
-      <c r="FF153" s="6" t="n"/>
+      <c r="FJ153" s="5" t="n"/>
+      <c r="FK153" s="6" t="n"/>
     </row>
     <row r="154">
-      <c r="FE154" s="5" t="n"/>
-      <c r="FF154" s="6" t="n"/>
+      <c r="FJ154" s="5" t="n"/>
+      <c r="FK154" s="6" t="n"/>
     </row>
     <row r="155">
-      <c r="FE155" s="5" t="n"/>
-      <c r="FF155" s="6" t="n"/>
+      <c r="FJ155" s="5" t="n"/>
+      <c r="FK155" s="6" t="n"/>
     </row>
     <row r="156">
-      <c r="FE156" s="5" t="n"/>
-      <c r="FF156" s="6" t="n"/>
+      <c r="FJ156" s="5" t="n"/>
+      <c r="FK156" s="6" t="n"/>
     </row>
     <row r="157">
-      <c r="FE157" s="5" t="n"/>
-      <c r="FF157" s="6" t="n"/>
+      <c r="FJ157" s="5" t="n"/>
+      <c r="FK157" s="6" t="n"/>
     </row>
     <row r="158">
-      <c r="FE158" s="5" t="n"/>
-      <c r="FF158" s="6" t="n"/>
+      <c r="FJ158" s="5" t="n"/>
+      <c r="FK158" s="6" t="n"/>
     </row>
     <row r="159">
-      <c r="FE159" s="5" t="n"/>
-      <c r="FF159" s="6" t="n"/>
+      <c r="FJ159" s="5" t="n"/>
+      <c r="FK159" s="6" t="n"/>
     </row>
     <row r="160">
-      <c r="FE160" s="5" t="n"/>
+      <c r="FJ160" s="5" t="n"/>
     </row>
     <row r="161">
-      <c r="FE161" s="5" t="n"/>
+      <c r="FJ161" s="5" t="n"/>
     </row>
     <row r="162">
-      <c r="FE162" s="5" t="n"/>
+      <c r="FJ162" s="5" t="n"/>
     </row>
     <row r="163">
-      <c r="FE163" s="5" t="n"/>
+      <c r="FJ163" s="5" t="n"/>
     </row>
     <row r="164">
-      <c r="FE164" s="5" t="n"/>
+      <c r="FJ164" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SDA_specs/iot_agg_reg_DE.xlsx
+++ b/SDA_specs/iot_agg_reg_DE.xlsx
@@ -14679,7 +14679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FK164"/>
+  <dimension ref="A1:HW164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -14692,543 +14692,543 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="BS1" t="inlineStr">
+      <c r="EE1" t="inlineStr">
         <is>
           <t>Aggregation</t>
         </is>
       </c>
-      <c r="FK1" s="5" t="n"/>
+      <c r="HW1" s="5" t="n"/>
     </row>
     <row r="2">
-      <c r="FJ2" s="5" t="n"/>
+      <c r="HV2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="FJ3" s="5" t="n"/>
+      <c r="HV3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="FJ4" s="5" t="n"/>
+      <c r="HV4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="FJ5" s="5" t="n"/>
+      <c r="HV5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="FJ6" s="5" t="n"/>
+      <c r="HV6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="FJ7" s="5" t="n"/>
+      <c r="HV7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="FJ8" s="5" t="n"/>
+      <c r="HV8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="FJ9" s="5" t="n"/>
+      <c r="HV9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="FJ10" s="5" t="n"/>
+      <c r="HV10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="FJ11" s="5" t="n"/>
+      <c r="HV11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="FJ12" s="5" t="n"/>
+      <c r="HV12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="FJ13" s="5" t="n"/>
+      <c r="HV13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="FJ14" s="5" t="n"/>
+      <c r="HV14" s="5" t="n"/>
     </row>
     <row r="15">
-      <c r="FJ15" s="5" t="n"/>
+      <c r="HV15" s="5" t="n"/>
     </row>
     <row r="16">
-      <c r="FJ16" s="5" t="n"/>
+      <c r="HV16" s="5" t="n"/>
     </row>
     <row r="17">
-      <c r="FJ17" s="5" t="n"/>
+      <c r="HV17" s="5" t="n"/>
     </row>
     <row r="18">
-      <c r="FJ18" s="5" t="n"/>
+      <c r="HV18" s="5" t="n"/>
     </row>
     <row r="19">
-      <c r="FJ19" s="5" t="n"/>
+      <c r="HV19" s="5" t="n"/>
     </row>
     <row r="20">
-      <c r="FJ20" s="5" t="n"/>
+      <c r="HV20" s="5" t="n"/>
     </row>
     <row r="21">
-      <c r="FJ21" s="5" t="n"/>
+      <c r="HV21" s="5" t="n"/>
     </row>
     <row r="22">
-      <c r="FJ22" s="5" t="n"/>
+      <c r="HV22" s="5" t="n"/>
     </row>
     <row r="23">
-      <c r="FJ23" s="5" t="n"/>
+      <c r="HV23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="FJ24" s="5" t="n"/>
+      <c r="HV24" s="5" t="n"/>
     </row>
     <row r="25">
-      <c r="FJ25" s="5" t="n"/>
+      <c r="HV25" s="5" t="n"/>
     </row>
     <row r="26">
-      <c r="FJ26" s="5" t="n"/>
+      <c r="HV26" s="5" t="n"/>
     </row>
     <row r="27">
-      <c r="FJ27" s="5" t="n"/>
+      <c r="HV27" s="5" t="n"/>
     </row>
     <row r="28">
-      <c r="FJ28" s="5" t="n"/>
+      <c r="HV28" s="5" t="n"/>
     </row>
     <row r="29">
-      <c r="FJ29" s="5" t="n"/>
+      <c r="HV29" s="5" t="n"/>
     </row>
     <row r="30">
-      <c r="FJ30" s="5" t="n"/>
+      <c r="HV30" s="5" t="n"/>
     </row>
     <row r="31">
-      <c r="FJ31" s="5" t="n"/>
+      <c r="HV31" s="5" t="n"/>
     </row>
     <row r="32">
-      <c r="FJ32" s="5" t="n"/>
+      <c r="HV32" s="5" t="n"/>
     </row>
     <row r="33">
-      <c r="FJ33" s="5" t="n"/>
+      <c r="HV33" s="5" t="n"/>
     </row>
     <row r="34">
-      <c r="FJ34" s="5" t="n"/>
+      <c r="HV34" s="5" t="n"/>
     </row>
     <row r="35">
-      <c r="FJ35" s="5" t="n"/>
+      <c r="HV35" s="5" t="n"/>
     </row>
     <row r="36">
-      <c r="FJ36" s="5" t="n"/>
+      <c r="HV36" s="5" t="n"/>
     </row>
     <row r="37">
-      <c r="FJ37" s="5" t="n"/>
+      <c r="HV37" s="5" t="n"/>
     </row>
     <row r="38">
-      <c r="FJ38" s="5" t="n"/>
+      <c r="HV38" s="5" t="n"/>
     </row>
     <row r="39">
-      <c r="FJ39" s="5" t="n"/>
+      <c r="HV39" s="5" t="n"/>
     </row>
     <row r="40">
-      <c r="FJ40" s="5" t="n"/>
+      <c r="HV40" s="5" t="n"/>
     </row>
     <row r="41">
-      <c r="FJ41" s="5" t="n"/>
+      <c r="HV41" s="5" t="n"/>
     </row>
     <row r="42">
-      <c r="FJ42" s="5" t="n"/>
+      <c r="HV42" s="5" t="n"/>
     </row>
     <row r="43">
-      <c r="FJ43" s="5" t="n"/>
+      <c r="HV43" s="5" t="n"/>
     </row>
     <row r="44">
-      <c r="FJ44" s="5" t="n"/>
+      <c r="HV44" s="5" t="n"/>
     </row>
     <row r="45">
-      <c r="FJ45" s="5" t="n"/>
+      <c r="HV45" s="5" t="n"/>
     </row>
     <row r="46">
-      <c r="FJ46" s="5" t="n"/>
+      <c r="HV46" s="5" t="n"/>
     </row>
     <row r="47">
-      <c r="FJ47" s="5" t="n"/>
+      <c r="HV47" s="5" t="n"/>
     </row>
     <row r="48">
-      <c r="FJ48" s="5" t="n"/>
+      <c r="HV48" s="5" t="n"/>
     </row>
     <row r="49">
-      <c r="FJ49" s="5" t="n"/>
+      <c r="HV49" s="5" t="n"/>
     </row>
     <row r="50">
-      <c r="FJ50" s="5" t="n"/>
+      <c r="HV50" s="5" t="n"/>
     </row>
     <row r="51">
-      <c r="FJ51" s="5" t="n"/>
+      <c r="HV51" s="5" t="n"/>
     </row>
     <row r="52">
-      <c r="FJ52" s="5" t="n"/>
+      <c r="HV52" s="5" t="n"/>
     </row>
     <row r="53">
-      <c r="FJ53" s="5" t="n"/>
+      <c r="HV53" s="5" t="n"/>
     </row>
     <row r="54">
-      <c r="FJ54" s="5" t="n"/>
+      <c r="HV54" s="5" t="n"/>
     </row>
     <row r="55">
-      <c r="FJ55" s="5" t="n"/>
+      <c r="HV55" s="5" t="n"/>
     </row>
     <row r="56">
-      <c r="FJ56" s="5" t="n"/>
+      <c r="HV56" s="5" t="n"/>
     </row>
     <row r="57">
-      <c r="FJ57" s="5" t="n"/>
+      <c r="HV57" s="5" t="n"/>
     </row>
     <row r="58">
-      <c r="FJ58" s="5" t="n"/>
+      <c r="HV58" s="5" t="n"/>
     </row>
     <row r="59">
-      <c r="FJ59" s="5" t="n"/>
+      <c r="HV59" s="5" t="n"/>
     </row>
     <row r="60">
-      <c r="FJ60" s="5" t="n"/>
+      <c r="HV60" s="5" t="n"/>
     </row>
     <row r="61">
-      <c r="FJ61" s="5" t="n"/>
+      <c r="HV61" s="5" t="n"/>
     </row>
     <row r="62">
-      <c r="FJ62" s="5" t="n"/>
+      <c r="HV62" s="5" t="n"/>
     </row>
     <row r="63">
-      <c r="FJ63" s="5" t="n"/>
+      <c r="HV63" s="5" t="n"/>
     </row>
     <row r="64">
-      <c r="FJ64" s="5" t="n"/>
+      <c r="HV64" s="5" t="n"/>
     </row>
     <row r="65">
-      <c r="FJ65" s="5" t="n"/>
+      <c r="HV65" s="5" t="n"/>
     </row>
     <row r="66">
-      <c r="FJ66" s="5" t="n"/>
+      <c r="HV66" s="5" t="n"/>
     </row>
     <row r="67">
-      <c r="FJ67" s="5" t="n"/>
+      <c r="HV67" s="5" t="n"/>
     </row>
     <row r="68">
-      <c r="FJ68" s="5" t="n"/>
+      <c r="HV68" s="5" t="n"/>
     </row>
     <row r="69">
-      <c r="FJ69" s="5" t="n"/>
+      <c r="HV69" s="5" t="n"/>
     </row>
     <row r="70">
-      <c r="FJ70" s="5" t="n"/>
+      <c r="HV70" s="5" t="n"/>
     </row>
     <row r="71">
-      <c r="FJ71" s="5" t="n"/>
+      <c r="HV71" s="5" t="n"/>
     </row>
     <row r="72">
-      <c r="FJ72" s="5" t="n"/>
+      <c r="HV72" s="5" t="n"/>
     </row>
     <row r="73">
-      <c r="FJ73" s="5" t="n"/>
+      <c r="HV73" s="5" t="n"/>
     </row>
     <row r="74">
-      <c r="FJ74" s="5" t="n"/>
+      <c r="HV74" s="5" t="n"/>
     </row>
     <row r="75">
-      <c r="FJ75" s="5" t="n"/>
+      <c r="HV75" s="5" t="n"/>
     </row>
     <row r="76">
-      <c r="FJ76" s="5" t="n"/>
+      <c r="HV76" s="5" t="n"/>
     </row>
     <row r="77">
-      <c r="FJ77" s="5" t="n"/>
+      <c r="HV77" s="5" t="n"/>
     </row>
     <row r="78">
-      <c r="FJ78" s="5" t="n"/>
+      <c r="HV78" s="5" t="n"/>
     </row>
     <row r="79">
-      <c r="FJ79" s="5" t="n"/>
+      <c r="HV79" s="5" t="n"/>
     </row>
     <row r="80">
-      <c r="FJ80" s="5" t="n"/>
+      <c r="HV80" s="5" t="n"/>
     </row>
     <row r="81">
-      <c r="FJ81" s="5" t="n"/>
+      <c r="HV81" s="5" t="n"/>
     </row>
     <row r="82">
-      <c r="FJ82" s="5" t="n"/>
+      <c r="HV82" s="5" t="n"/>
     </row>
     <row r="83">
-      <c r="FJ83" s="5" t="n"/>
+      <c r="HV83" s="5" t="n"/>
     </row>
     <row r="84">
-      <c r="FJ84" s="5" t="n"/>
+      <c r="HV84" s="5" t="n"/>
     </row>
     <row r="85">
-      <c r="FJ85" s="5" t="n"/>
+      <c r="HV85" s="5" t="n"/>
     </row>
     <row r="86">
-      <c r="FJ86" s="5" t="n"/>
+      <c r="HV86" s="5" t="n"/>
     </row>
     <row r="87">
-      <c r="FJ87" s="5" t="n"/>
+      <c r="HV87" s="5" t="n"/>
     </row>
     <row r="88">
-      <c r="FJ88" s="5" t="n"/>
+      <c r="HV88" s="5" t="n"/>
     </row>
     <row r="89">
-      <c r="FJ89" s="5" t="n"/>
+      <c r="HV89" s="5" t="n"/>
     </row>
     <row r="90">
-      <c r="FJ90" s="5" t="n"/>
+      <c r="HV90" s="5" t="n"/>
     </row>
     <row r="91">
-      <c r="FJ91" s="5" t="n"/>
+      <c r="HV91" s="5" t="n"/>
     </row>
     <row r="92">
-      <c r="FJ92" s="5" t="n"/>
+      <c r="HV92" s="5" t="n"/>
     </row>
     <row r="93">
-      <c r="FJ93" s="5" t="n"/>
+      <c r="HV93" s="5" t="n"/>
     </row>
     <row r="94">
-      <c r="FJ94" s="5" t="n"/>
+      <c r="HV94" s="5" t="n"/>
     </row>
     <row r="95">
-      <c r="FJ95" s="5" t="n"/>
+      <c r="HV95" s="5" t="n"/>
     </row>
     <row r="96">
-      <c r="FJ96" s="5" t="n"/>
+      <c r="HV96" s="5" t="n"/>
     </row>
     <row r="97">
-      <c r="FJ97" s="5" t="n"/>
-      <c r="FK97" s="6" t="n"/>
+      <c r="HV97" s="5" t="n"/>
+      <c r="HW97" s="6" t="n"/>
     </row>
     <row r="98">
-      <c r="FJ98" s="5" t="n"/>
-      <c r="FK98" s="6" t="n"/>
+      <c r="HV98" s="5" t="n"/>
+      <c r="HW98" s="6" t="n"/>
     </row>
     <row r="99">
-      <c r="FJ99" s="5" t="n"/>
-      <c r="FK99" s="6" t="n"/>
+      <c r="HV99" s="5" t="n"/>
+      <c r="HW99" s="6" t="n"/>
     </row>
     <row r="100">
-      <c r="FJ100" s="5" t="n"/>
-      <c r="FK100" s="6" t="n"/>
+      <c r="HV100" s="5" t="n"/>
+      <c r="HW100" s="6" t="n"/>
     </row>
     <row r="101">
-      <c r="FJ101" s="5" t="n"/>
-      <c r="FK101" s="6" t="n"/>
+      <c r="HV101" s="5" t="n"/>
+      <c r="HW101" s="6" t="n"/>
     </row>
     <row r="102">
-      <c r="FJ102" s="5" t="n"/>
-      <c r="FK102" s="6" t="n"/>
+      <c r="HV102" s="5" t="n"/>
+      <c r="HW102" s="6" t="n"/>
     </row>
     <row r="103">
-      <c r="FJ103" s="5" t="n"/>
-      <c r="FK103" s="6" t="n"/>
+      <c r="HV103" s="5" t="n"/>
+      <c r="HW103" s="6" t="n"/>
     </row>
     <row r="104">
-      <c r="FJ104" s="5" t="n"/>
-      <c r="FK104" s="6" t="n"/>
+      <c r="HV104" s="5" t="n"/>
+      <c r="HW104" s="6" t="n"/>
     </row>
     <row r="105">
-      <c r="FJ105" s="5" t="n"/>
-      <c r="FK105" s="6" t="n"/>
+      <c r="HV105" s="5" t="n"/>
+      <c r="HW105" s="6" t="n"/>
     </row>
     <row r="106">
-      <c r="FJ106" s="5" t="n"/>
-      <c r="FK106" s="6" t="n"/>
+      <c r="HV106" s="5" t="n"/>
+      <c r="HW106" s="6" t="n"/>
     </row>
     <row r="107">
-      <c r="FJ107" s="5" t="n"/>
-      <c r="FK107" s="6" t="n"/>
+      <c r="HV107" s="5" t="n"/>
+      <c r="HW107" s="6" t="n"/>
     </row>
     <row r="108">
-      <c r="FJ108" s="5" t="n"/>
-      <c r="FK108" s="6" t="n"/>
+      <c r="HV108" s="5" t="n"/>
+      <c r="HW108" s="6" t="n"/>
     </row>
     <row r="109">
-      <c r="FJ109" s="5" t="n"/>
-      <c r="FK109" s="6" t="n"/>
+      <c r="HV109" s="5" t="n"/>
+      <c r="HW109" s="6" t="n"/>
     </row>
     <row r="110">
-      <c r="FJ110" s="5" t="n"/>
-      <c r="FK110" s="6" t="n"/>
+      <c r="HV110" s="5" t="n"/>
+      <c r="HW110" s="6" t="n"/>
     </row>
     <row r="111">
-      <c r="FJ111" s="5" t="n"/>
-      <c r="FK111" s="6" t="n"/>
+      <c r="HV111" s="5" t="n"/>
+      <c r="HW111" s="6" t="n"/>
     </row>
     <row r="112">
-      <c r="FJ112" s="5" t="n"/>
-      <c r="FK112" s="6" t="n"/>
+      <c r="HV112" s="5" t="n"/>
+      <c r="HW112" s="6" t="n"/>
     </row>
     <row r="113">
-      <c r="FJ113" s="5" t="n"/>
-      <c r="FK113" s="6" t="n"/>
+      <c r="HV113" s="5" t="n"/>
+      <c r="HW113" s="6" t="n"/>
     </row>
     <row r="114">
-      <c r="FJ114" s="5" t="n"/>
+      <c r="HV114" s="5" t="n"/>
     </row>
     <row r="115">
-      <c r="FJ115" s="5" t="n"/>
+      <c r="HV115" s="5" t="n"/>
     </row>
     <row r="116">
-      <c r="FJ116" s="5" t="n"/>
+      <c r="HV116" s="5" t="n"/>
     </row>
     <row r="117">
-      <c r="FJ117" s="5" t="n"/>
+      <c r="HV117" s="5" t="n"/>
     </row>
     <row r="118">
-      <c r="FJ118" s="5" t="n"/>
+      <c r="HV118" s="5" t="n"/>
     </row>
     <row r="119">
-      <c r="FJ119" s="5" t="n"/>
+      <c r="HV119" s="5" t="n"/>
     </row>
     <row r="120">
-      <c r="FJ120" s="5" t="n"/>
+      <c r="HV120" s="5" t="n"/>
     </row>
     <row r="121">
-      <c r="FJ121" s="5" t="n"/>
-      <c r="FK121" s="7" t="n"/>
+      <c r="HV121" s="5" t="n"/>
+      <c r="HW121" s="7" t="n"/>
     </row>
     <row r="122">
-      <c r="FJ122" s="5" t="n"/>
-      <c r="FK122" s="7" t="n"/>
+      <c r="HV122" s="5" t="n"/>
+      <c r="HW122" s="7" t="n"/>
     </row>
     <row r="123">
-      <c r="FJ123" s="5" t="n"/>
-      <c r="FK123" s="7" t="n"/>
+      <c r="HV123" s="5" t="n"/>
+      <c r="HW123" s="7" t="n"/>
     </row>
     <row r="124">
-      <c r="FJ124" s="5" t="n"/>
-      <c r="FK124" s="7" t="n"/>
+      <c r="HV124" s="5" t="n"/>
+      <c r="HW124" s="7" t="n"/>
     </row>
     <row r="125">
-      <c r="FJ125" s="5" t="n"/>
-      <c r="FK125" s="7" t="n"/>
+      <c r="HV125" s="5" t="n"/>
+      <c r="HW125" s="7" t="n"/>
     </row>
     <row r="126">
-      <c r="FJ126" s="5" t="n"/>
-      <c r="FK126" s="7" t="n"/>
+      <c r="HV126" s="5" t="n"/>
+      <c r="HW126" s="7" t="n"/>
     </row>
     <row r="127">
-      <c r="FJ127" s="5" t="n"/>
-      <c r="FK127" s="7" t="n"/>
+      <c r="HV127" s="5" t="n"/>
+      <c r="HW127" s="7" t="n"/>
     </row>
     <row r="128">
-      <c r="FJ128" s="5" t="n"/>
+      <c r="HV128" s="5" t="n"/>
     </row>
     <row r="129">
-      <c r="FJ129" s="5" t="n"/>
+      <c r="HV129" s="5" t="n"/>
     </row>
     <row r="130">
-      <c r="FJ130" s="5" t="n"/>
+      <c r="HV130" s="5" t="n"/>
     </row>
     <row r="131">
-      <c r="FJ131" s="5" t="n"/>
+      <c r="HV131" s="5" t="n"/>
     </row>
     <row r="132">
-      <c r="FJ132" s="5" t="n"/>
+      <c r="HV132" s="5" t="n"/>
     </row>
     <row r="133">
-      <c r="FJ133" s="5" t="n"/>
+      <c r="HV133" s="5" t="n"/>
     </row>
     <row r="134">
-      <c r="FJ134" s="5" t="n"/>
+      <c r="HV134" s="5" t="n"/>
     </row>
     <row r="135">
-      <c r="FJ135" s="5" t="n"/>
+      <c r="HV135" s="5" t="n"/>
     </row>
     <row r="136">
-      <c r="FJ136" s="5" t="n"/>
+      <c r="HV136" s="5" t="n"/>
     </row>
     <row r="137">
-      <c r="FJ137" s="5" t="n"/>
+      <c r="HV137" s="5" t="n"/>
     </row>
     <row r="138">
-      <c r="FJ138" s="5" t="n"/>
+      <c r="HV138" s="5" t="n"/>
     </row>
     <row r="139">
-      <c r="FJ139" s="5" t="n"/>
+      <c r="HV139" s="5" t="n"/>
     </row>
     <row r="140">
-      <c r="FJ140" s="5" t="n"/>
-      <c r="FK140" s="6" t="n"/>
+      <c r="HV140" s="5" t="n"/>
+      <c r="HW140" s="6" t="n"/>
     </row>
     <row r="141">
-      <c r="FJ141" s="5" t="n"/>
-      <c r="FK141" s="6" t="n"/>
+      <c r="HV141" s="5" t="n"/>
+      <c r="HW141" s="6" t="n"/>
     </row>
     <row r="142">
-      <c r="FJ142" s="5" t="n"/>
-      <c r="FK142" s="6" t="n"/>
+      <c r="HV142" s="5" t="n"/>
+      <c r="HW142" s="6" t="n"/>
     </row>
     <row r="143">
-      <c r="FJ143" s="5" t="n"/>
-      <c r="FK143" s="6" t="n"/>
+      <c r="HV143" s="5" t="n"/>
+      <c r="HW143" s="6" t="n"/>
     </row>
     <row r="144">
-      <c r="FJ144" s="5" t="n"/>
-      <c r="FK144" s="6" t="n"/>
+      <c r="HV144" s="5" t="n"/>
+      <c r="HW144" s="6" t="n"/>
     </row>
     <row r="145">
-      <c r="FJ145" s="5" t="n"/>
-      <c r="FK145" s="6" t="n"/>
+      <c r="HV145" s="5" t="n"/>
+      <c r="HW145" s="6" t="n"/>
     </row>
     <row r="146">
-      <c r="FJ146" s="5" t="n"/>
-      <c r="FK146" s="6" t="n"/>
+      <c r="HV146" s="5" t="n"/>
+      <c r="HW146" s="6" t="n"/>
     </row>
     <row r="147">
-      <c r="FJ147" s="5" t="n"/>
-      <c r="FK147" s="6" t="n"/>
+      <c r="HV147" s="5" t="n"/>
+      <c r="HW147" s="6" t="n"/>
     </row>
     <row r="148">
-      <c r="FJ148" s="5" t="n"/>
-      <c r="FK148" s="6" t="n"/>
+      <c r="HV148" s="5" t="n"/>
+      <c r="HW148" s="6" t="n"/>
     </row>
     <row r="149">
-      <c r="FJ149" s="5" t="n"/>
-      <c r="FK149" s="6" t="n"/>
+      <c r="HV149" s="5" t="n"/>
+      <c r="HW149" s="6" t="n"/>
     </row>
     <row r="150">
-      <c r="FJ150" s="5" t="n"/>
+      <c r="HV150" s="5" t="n"/>
     </row>
     <row r="151">
-      <c r="FJ151" s="5" t="n"/>
+      <c r="HV151" s="5" t="n"/>
     </row>
     <row r="152">
-      <c r="FJ152" s="5" t="n"/>
-      <c r="FK152" s="6" t="n"/>
+      <c r="HV152" s="5" t="n"/>
+      <c r="HW152" s="6" t="n"/>
     </row>
     <row r="153">
-      <c r="FJ153" s="5" t="n"/>
-      <c r="FK153" s="6" t="n"/>
+      <c r="HV153" s="5" t="n"/>
+      <c r="HW153" s="6" t="n"/>
     </row>
     <row r="154">
-      <c r="FJ154" s="5" t="n"/>
-      <c r="FK154" s="6" t="n"/>
+      <c r="HV154" s="5" t="n"/>
+      <c r="HW154" s="6" t="n"/>
     </row>
     <row r="155">
-      <c r="FJ155" s="5" t="n"/>
-      <c r="FK155" s="6" t="n"/>
+      <c r="HV155" s="5" t="n"/>
+      <c r="HW155" s="6" t="n"/>
     </row>
     <row r="156">
-      <c r="FJ156" s="5" t="n"/>
-      <c r="FK156" s="6" t="n"/>
+      <c r="HV156" s="5" t="n"/>
+      <c r="HW156" s="6" t="n"/>
     </row>
     <row r="157">
-      <c r="FJ157" s="5" t="n"/>
-      <c r="FK157" s="6" t="n"/>
+      <c r="HV157" s="5" t="n"/>
+      <c r="HW157" s="6" t="n"/>
     </row>
     <row r="158">
-      <c r="FJ158" s="5" t="n"/>
-      <c r="FK158" s="6" t="n"/>
+      <c r="HV158" s="5" t="n"/>
+      <c r="HW158" s="6" t="n"/>
     </row>
     <row r="159">
-      <c r="FJ159" s="5" t="n"/>
-      <c r="FK159" s="6" t="n"/>
+      <c r="HV159" s="5" t="n"/>
+      <c r="HW159" s="6" t="n"/>
     </row>
     <row r="160">
-      <c r="FJ160" s="5" t="n"/>
+      <c r="HV160" s="5" t="n"/>
     </row>
     <row r="161">
-      <c r="FJ161" s="5" t="n"/>
+      <c r="HV161" s="5" t="n"/>
     </row>
     <row r="162">
-      <c r="FJ162" s="5" t="n"/>
+      <c r="HV162" s="5" t="n"/>
     </row>
     <row r="163">
-      <c r="FJ163" s="5" t="n"/>
+      <c r="HV163" s="5" t="n"/>
     </row>
     <row r="164">
-      <c r="FJ164" s="5" t="n"/>
+      <c r="HV164" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
